--- a/apps/pc_zone/test/support/data/products.xlsx
+++ b/apps/pc_zone/test/support/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achilles/Projects/pczone_umbrella/apps/pc_zone/test/support/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4CF26-49D2-9642-B81B-33E736D5676A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E8A97C-39AA-F740-A82A-E09D5F1482F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{2461082F-601B-E94F-AE09-008E6CBA7E88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>kind</t>
   </si>
@@ -228,15 +228,6 @@
     <t>16gb-dimm-ddr4-2400-mixed/used</t>
   </si>
   <si>
-    <t>256gb-samsung-pm981/like-new</t>
-  </si>
-  <si>
-    <t>512gb-samsung-pm981/like-new</t>
-  </si>
-  <si>
-    <t>1tb-samsung-pm981/like-new</t>
-  </si>
-  <si>
     <t>256gb-samsung-pm981/95%</t>
   </si>
   <si>
@@ -249,16 +240,28 @@
     <t>1tb-samsung-pm981/95%</t>
   </si>
   <si>
-    <t>256gb-samsung-860-evo/like-new</t>
-  </si>
-  <si>
     <t>512gb-samsung-860-evo</t>
   </si>
   <si>
-    <t>512gb-samsung-860-evo/like-new</t>
-  </si>
-  <si>
-    <t>1tb-samsung-860-evo/like-new</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>256gb-samsung-pm981/100%</t>
+  </si>
+  <si>
+    <t>512gb-samsung-pm981/100%</t>
+  </si>
+  <si>
+    <t>1tb-samsung-pm981/100%</t>
+  </si>
+  <si>
+    <t>256gb-samsung-860-evo/100%</t>
+  </si>
+  <si>
+    <t>512gb-samsung-860-evo/100%</t>
+  </si>
+  <si>
+    <t>1tb-samsung-860-evo/100%</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1227,10 +1230,10 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>49</v>
@@ -1250,10 +1253,10 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>49</v>
@@ -1273,10 +1276,10 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>49</v>
@@ -1296,10 +1299,10 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>49</v>
@@ -1319,10 +1322,10 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>49</v>
@@ -1342,10 +1345,10 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>49</v>
@@ -1365,10 +1368,10 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>49</v>
@@ -1385,13 +1388,13 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>49</v>
@@ -1411,10 +1414,10 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>49</v>
